--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56961\Desktop\Universidad\2021-1\BBDD\BBDD_84\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE26700-5256-4716-9E79-124607D5BFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909201E-68B6-4641-933B-2FFD81BBB63C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00351CE1-035F-42EE-ADB9-235D5ED1FC37}"/>
+    <workbookView xWindow="-1130" yWindow="3740" windowWidth="2370" windowHeight="560" xr2:uid="{00351CE1-035F-42EE-ADB9-235D5ED1FC37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -308,22 +308,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">pesos </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int o lista)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">volumen </t>
     </r>
     <r>
@@ -469,6 +453,22 @@
   <si>
     <r>
       <t xml:space="preserve">cid </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">capacidad </t>
     </r>
     <r>
       <rPr>
@@ -961,8 +961,8 @@
   </sheetPr>
   <dimension ref="A5:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1072,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1124,16 +1124,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1147,19 +1147,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
